--- a/Guide/R2R_T3.2_generation_of_data.xlsx
+++ b/Guide/R2R_T3.2_generation_of_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzivatel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E804A23-B946-493B-9C6E-D7A0A196FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD056B89-63DB-4E35-89BA-E351BD74B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34410" yWindow="180" windowWidth="29650" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="440" windowWidth="20620" windowHeight="20420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description of generated offer " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -561,13 +561,73 @@
   </si>
   <si>
     <t>It  seems that number of legs is strongly determined by the number of Via points (more precisely, number of legs is given by the number of Via point + 1). This assumption excludes the possibility of transfers at places that are not defined by users of the JP.</t>
+  </si>
+  <si>
+    <t>Request-level information: &lt;request_id&gt;:offers</t>
+  </si>
+  <si>
+    <t>Not covered in the docu. Is it stored by OC core in the offer cache?</t>
+  </si>
+  <si>
+    <t>Offer-level information  &lt;request_id&gt;:&lt;offer_id&gt;:legs</t>
+  </si>
+  <si>
+    <t>expected from CW</t>
+  </si>
+  <si>
+    <t>Not covered in the OC docu. Is it availbe in TRIAS?</t>
+  </si>
+  <si>
+    <t>Not covered in the OC docu . May need to extracted by TRIAS extractor. Note: Coordinates are available in the Offer Cache.</t>
+  </si>
+  <si>
+    <t>&lt;request_id&gt;:&lt;offer_id&gt;:&lt;leg_id&gt;:transportation_mode</t>
+  </si>
+  <si>
+    <t>Not covered in the OC docu . May need to extracted by TRIAS extractor if availble in TRIAS</t>
+  </si>
+  <si>
+    <t>Leg level information &lt;request_id&gt;:&lt;offer_id&gt;:&lt;leg_id&gt;:start_time 
+Offer level information: &lt;request_id&gt;:&lt;offer_id&gt;:start_time</t>
+  </si>
+  <si>
+    <t>Leg level information &lt;request_id&gt;:&lt;offer_id&gt;:&lt;leg_id&gt;:end_time 
+Offer level information: &lt;request_id&gt;:&lt;offer_id&gt;:end_time</t>
+  </si>
+  <si>
+    <t>??? It seems that this could be a list of transport modes that are present in the travel offer and belong to the transport modes prefered by a given user. Most likely leg level information about the mode of transport could be here useful &lt;request_id&gt;:&lt;offer_id&gt;:&lt;leg_id&gt;:transportation_mode</t>
+  </si>
+  <si>
+    <t>I assume that this is input information about the maximum number of transfer a traveller is willing to accept. If so, we should finsd it in the request information. Currently it is not included in the offer cache.</t>
+  </si>
+  <si>
+    <t>??? From the possible values that meaning is not clear. It seems that this is input information specified by the traveller. If it is the case it could be obtained from information about the request. Currently it is not included in the Offer cache.</t>
+  </si>
+  <si>
+    <t>??? Availble is total_walk_distance (distance traveled by walk mode) tjat is produced by active_fc feature collector. Furthermose, availble in the Offer Cache are coordinates of start and end point and coordinates of leg_stops (if such data is provided).</t>
+  </si>
+  <si>
+    <t>It seems that this is input information provided by the traveller when searching for trip. Currently, such request information is not availbe in Offer Cache.</t>
+  </si>
+  <si>
+    <t>Availability in Offer Cache
+ (Offer Cache docu: https://pad.consonni.dev/p/OfferCache)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??? Not covered in Offer Cache docu. </t>
+  </si>
+  <si>
+    <t>Time when the request was submitted to JP is not currently avaiable in the Offer Cache. Maybe it could be approximated by the desired start time - Request-level information: &lt;request_id&gt;:start_time</t>
+  </si>
+  <si>
+    <t>??? Availble is bike_walk_distance (distance traveled by bike and walk modes) that is produced by active_fc feature collector. Furthermose, availble in the Offer Cache are coordinates of start and end point and coordinates of leg_stops (if such data is provided) + information about the used modes of travel.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -600,8 +660,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF2196F3"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +711,18 @@
         <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -672,23 +751,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,6 +801,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1119,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1131,817 +1217,957 @@
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="53.6640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" customWidth="1"/>
+    <col min="6" max="6" width="56.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="79.2" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="79.2" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="12" t="s">
+      <c r="E5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12" t="s">
+      <c r="E6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="110.4" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="110.4" customHeight="1">
+      <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="77.400000000000006" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="15" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="77.400000000000006" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="90.9" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="90.9" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="78.3" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="78.3" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="93.6" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="93.6" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="70.8" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="15" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="70.8" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="70.349999999999994" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="15" t="s">
+      <c r="E13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="70.349999999999994" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="15" t="s">
+      <c r="E14" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="18" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="18" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="18" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="18" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="18" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="18" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="18" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="18" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="18" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="18" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" ht="103.8" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="21" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="103.8" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" ht="133.80000000000001" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="21" t="s">
+      <c r="E28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="133.80000000000001" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="82.65" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="21" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="82.65" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" ht="116.85" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="21" t="s">
+      <c r="E30" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" ht="116.85" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10" ht="93.9" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="93.9" customHeight="1">
+      <c r="A32" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="24" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" s="28" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="E33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" s="23" customFormat="1" ht="57.6" customHeight="1">
+      <c r="A34" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:10" s="28" customFormat="1" ht="132.6" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="21" t="s">
+      <c r="E34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" s="23" customFormat="1" ht="153.6" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" s="28" customFormat="1" ht="130.80000000000001" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="21" t="s">
+      <c r="E35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" s="23" customFormat="1" ht="130.80000000000001" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" s="28" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="21" t="s">
+      <c r="E36" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="57.6" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" s="28" customFormat="1" ht="207.6" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="21" t="s">
+      <c r="E37" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" s="23" customFormat="1" ht="207.6" customHeight="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="1:10" s="28" customFormat="1" ht="111.9" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="21" t="s">
+      <c r="E38" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="111.9" customHeight="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40" spans="1:10" s="28" customFormat="1" ht="125.7" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="21" t="s">
+      <c r="E39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" s="23" customFormat="1" ht="125.7" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:10" s="28" customFormat="1" ht="125.7" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="21" t="s">
+      <c r="E40" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" s="23" customFormat="1" ht="125.7" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" s="28" customFormat="1" ht="205.8" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="21" t="s">
+      <c r="E41" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" s="23" customFormat="1" ht="205.8" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10" s="28" customFormat="1" ht="120" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="21" t="s">
+      <c r="E42" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" s="23" customFormat="1" ht="120" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" ht="57.6" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10" t="s">
+      <c r="E43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="1:11" ht="57.6" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" ht="57.6" customHeight="1">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:10" ht="57.6" customHeight="1">
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:10" ht="57.6" customHeight="1">
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:10" ht="57.6" customHeight="1">
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="3:4" ht="57.6" customHeight="1">
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="3:4" ht="57.6" customHeight="1">
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="3:4" ht="57.6" customHeight="1">
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="3:4" ht="57.6" customHeight="1">
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="3:4" ht="57.6" customHeight="1">
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="55" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="56" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="57" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="58" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="59" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="60" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="61" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="62" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="63" spans="3:4" ht="57.6" customHeight="1"/>
-    <row r="64" spans="3:4" ht="57.6" customHeight="1"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="57.6" customHeight="1">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:11" ht="57.6" customHeight="1">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" ht="57.6" customHeight="1">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" customHeight="1">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="3:5" ht="57.6" customHeight="1">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="3:5" ht="57.6" customHeight="1">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="3:5" ht="57.6" customHeight="1">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="3:5" ht="57.6" customHeight="1">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="3:5" ht="57.6" customHeight="1">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+    </row>
+    <row r="54" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="55" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="56" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="57" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="58" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="59" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="60" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="61" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="62" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="63" spans="3:5" ht="57.6" customHeight="1"/>
+    <row r="64" spans="3:5" ht="57.6" customHeight="1"/>
     <row r="65" ht="57.6" customHeight="1"/>
     <row r="66" ht="57.6" customHeight="1"/>
     <row r="67" ht="57.6" customHeight="1"/>
@@ -1992,7 +2218,7 @@
     <mergeCell ref="A32:A33"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2014,118 +2240,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="58.5" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="42.9" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="25"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="25"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="30"/>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="30"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="30"/>
+      <c r="A33" s="25"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="30"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="30"/>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="30"/>
+      <c r="A36" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Guide/R2R_T3.2_generation_of_data.xlsx
+++ b/Guide/R2R_T3.2_generation_of_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzivatel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzivatel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD056B89-63DB-4E35-89BA-E351BD74B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C0CF5E-22EB-4517-8430-9E9FDAAE15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="440" windowWidth="20620" windowHeight="20420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38080" yWindow="320" windowWidth="26530" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description of generated offer " sheetId="1" r:id="rId1"/>
@@ -25,8 +25,233 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DA8395A7-CECE-4F78-BA72-B6697F034A9C}</author>
+    <author>tc={5D2C947B-7404-46AF-BDD3-DF63FBF6EBFD}</author>
+    <author>tc={0BC0CF08-C03B-443C-AC01-D36822B25E28}</author>
+    <author>tc={B7DDACAE-5F43-4D12-8B43-01E0ADA8C7B7}</author>
+    <author>tc={44D2AAE9-9A31-4D08-9702-31317955C57D}</author>
+    <author>tc={ACA3612B-CD0E-471C-AF51-04AF56034598}</author>
+    <author>tc={F390E451-01E8-4DFA-9BDE-AFC49C2A40E1}</author>
+    <author>tc={22DEB196-D8C6-42DE-AA47-B4BC74229B10}</author>
+    <author>tc={F9EFBF58-043A-4107-85E7-AA1FC5B896C5}</author>
+    <author>tc={5B3D6D03-3E5B-410A-A636-A183AF25EDF2}</author>
+    <author>tc={AC886CC8-DE61-4998-A397-BC1B33ED411C}</author>
+    <author>tc={1DF6BE8E-5F08-4148-AFA9-E4346C6ED0FA}</author>
+    <author>tc={EF580394-A706-4AB5-8FAF-0BCCF56DACBF}</author>
+    <author>tc={E7D9BBF0-ED66-4948-A0C4-CE5F8BD2F6AA}</author>
+    <author>tc={4A82061B-E7B7-4033-85CE-B9F452938CEC}</author>
+    <author>tc={20A06AA2-EE98-4D7A-B28E-5778D72D338E}</author>
+    <author>tc={2889B423-AE1A-439B-B545-1DBAD2AEDEDB}</author>
+    <author>tc={B1A04F5E-CFFA-4DBD-935F-8133BC221DE5}</author>
+    <author>tc={17BA756E-335F-469F-9476-0B34AB027D56}</author>
+    <author>tc={BF21DCAF-8F9D-4087-B5A2-705B853E2329}</author>
+    <author>tc={C7D308B0-5949-4A49-822F-8CCD1A59F712}</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{DA8395A7-CECE-4F78-BA72-B6697F034A9C}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    I assumed we should receive it from CW or somewhere else.</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{5D2C947B-7404-46AF-BDD3-DF63FBF6EBFD}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Yes, this is the home city.</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="2" shapeId="0" xr:uid="{0BC0CF08-C03B-443C-AC01-D36822B25E28}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Yes, this is the home country.</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="3" shapeId="0" xr:uid="{B7DDACAE-5F43-4D12-8B43-01E0ADA8C7B7}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    As a general rule, the possible values for each feature are extracted from the actual TC application.</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="4" shapeId="0" xr:uid="{44D2AAE9-9A31-4D08-9702-31317955C57D}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Yes, in fact according to the TrainItalia collegues, it is called Product. But you underestood it correctly.</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="5" shapeId="0" xr:uid="{ACA3612B-CD0E-471C-AF51-04AF56034598}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    The type of seat. Currently, user can set one of the 3 options as the prefered one.</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="6" shapeId="0" xr:uid="{F390E451-01E8-4DFA-9BDE-AFC49C2A40E1}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    The way that the user like to receive their refund in case if they request to cancel a trip or sth like that.</t>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="7" shapeId="0" xr:uid="{22DEB196-D8C6-42DE-AA47-B4BC74229B10}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    As discussed durin the weekly T3.1 meetings, since OC parses TRIAS, we expect the OC to send this information to the Learner and Ranker.</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="8" shapeId="0" xr:uid="{F9EFBF58-043A-4107-85E7-AA1FC5B896C5}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    I completely agree with you, but please note that all the variable names and their values are according to the current TC application.</t>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="9" shapeId="0" xr:uid="{5B3D6D03-3E5B-410A-A636-A183AF25EDF2}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    No need for TRIAS, it should be available in CW.</t>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="10" shapeId="0" xr:uid="{AC886CC8-DE61-4998-A397-BC1B33ED411C}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    It is something that we expect from OC to send to the Learning and Ranking. But if it is not covered by TRIAS, you might want to assume that all the offers satisfy the mobility request source and destination. Thus, you can use the actual user request as the source and destination.</t>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="11" shapeId="0" xr:uid="{1DF6BE8E-5F08-4148-AFA9-E4346C6ED0FA}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    You are right, if I am not wrong, in one of the meetings we underestood that TRIAS doesn't contain the actual coordination. But please be aware that, even if we have such information available, they DO NOT affect the learning. Why? because it doesn't matter (at least that much) if you start/finish from/in specific street. What matters the most is the source and destination cities. In short, we do not need more granularity. It is important for calculating the "Door-to-door" category which is already used by the ranking mechanism. In fact, if you compute that one, we are using it implicitly.</t>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="12" shapeId="0" xr:uid="{EF580394-A706-4AB5-8FAF-0BCCF56DACBF}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Plz check the previous comment on Starting point</t>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="13" shapeId="0" xr:uid="{E7D9BBF0-ED66-4948-A0C4-CE5F8BD2F6AA}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Completely agree. But you might want to double check with INDRIA to sync the changes.</t>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="14" shapeId="0" xr:uid="{4A82061B-E7B7-4033-85CE-B9F452938CEC}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Sorry, but I didn't get your concern</t>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="15" shapeId="0" xr:uid="{20A06AA2-EE98-4D7A-B28E-5778D72D338E}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    In the current TC, for some reasons that I am not aware of (maybe terminology), they refer to mode of transportation as "Service".</t>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="16" shapeId="0" xr:uid="{2889B423-AE1A-439B-B545-1DBAD2AEDEDB}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    The Prefered/Requested number of legs/changes/transfers</t>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="17" shapeId="0" xr:uid="{B1A04F5E-CFFA-4DBD-935F-8133BC221DE5}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    The minimum time that a user needs for transfer. Consider people with PRM.</t>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="18" shapeId="0" xr:uid="{17BA756E-335F-469F-9476-0B34AB027D56}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    The distance that the traveler is willing to go by walk to reach station.</t>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="19" shapeId="0" xr:uid="{BF21DCAF-8F9D-4087-B5A2-705B853E2329}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    The same as Walking but for Cycling</t>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="20" shapeId="0" xr:uid="{C7D308B0-5949-4A49-822F-8CCD1A59F712}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    You are right. I checked the code again. If necessary, some rules should be added in the end to make the choice according to rules instead of randomly. The most efficient way to do that is to write down all the rules that we developed for generating the profile dataset, then, for each combination of rules, we should come up with 2 or 3 possibilities that are presented in the travel offer. Then, we can score them (according to number of requirements that each offer meets) and then choose the one with the highest score. Also, it is good to define specific feature for the tie situation.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={48A8AB2D-1D0C-4648-843E-FCED48638F2B}</author>
+    <author>tc={04033C19-FAF7-446F-8FF9-4945030E64BD}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{48A8AB2D-1D0C-4648-843E-FCED48638F2B}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    It would be great, but in case if you need it, you can use the date, time, source, and destination. A person doesn't have multiple requests at the same time from same location to same location.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{04033C19-FAF7-446F-8FF9-4945030E64BD}">
+      <text>
+        <t>[Zreťazený komentár]
+Vaša verzia programu Excel vám umožňuje čítať tento zreťazený komentár, avšak akékoľvek jeho zmeny sa odstránia, ak sa súbor otvorí v novšej verzii programu Excel. Ďalšie informácie: https://go.microsoft.com/fwlink/?linkid=870924
+Komentár:
+    Matteo would correct me if I am wrong, but as far as I underestood, you are correct, but still it is a question for me what is the treshold for considering a distance by walk as a leg.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -392,9 +617,6 @@
     <t>Departure time</t>
   </si>
   <si>
-    <t>It is date-time information encoded as a string. It is generated in the offer context. It is randomly generated (with uniform probability to take place between birth data of a traveller and 31/12/2022.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some records might be quite old. </t>
   </si>
   <si>
@@ -417,9 +639,6 @@
   </si>
   <si>
     <t>Transfers</t>
-  </si>
-  <si>
-    <t>It is a string. It is defined in the offer context. It is on of the following values “None”, “Max 1”, “Max 2” selected with probabilities 0.4, 0.3, 0.2, or with the probability 0.1 it is one of the values “Unlimited”, “Max 3”, “Max 4” (selected uniformly).</t>
   </si>
   <si>
     <t>What is the meaning of this item?                                                                    Rules can be found on lines 1133-1144 of the file LEARNER.py</t>
@@ -598,13 +817,7 @@
     <t>??? It seems that this could be a list of transport modes that are present in the travel offer and belong to the transport modes prefered by a given user. Most likely leg level information about the mode of transport could be here useful &lt;request_id&gt;:&lt;offer_id&gt;:&lt;leg_id&gt;:transportation_mode</t>
   </si>
   <si>
-    <t>I assume that this is input information about the maximum number of transfer a traveller is willing to accept. If so, we should finsd it in the request information. Currently it is not included in the offer cache.</t>
-  </si>
-  <si>
     <t>??? From the possible values that meaning is not clear. It seems that this is input information specified by the traveller. If it is the case it could be obtained from information about the request. Currently it is not included in the Offer cache.</t>
-  </si>
-  <si>
-    <t>??? Availble is total_walk_distance (distance traveled by walk mode) tjat is produced by active_fc feature collector. Furthermose, availble in the Offer Cache are coordinates of start and end point and coordinates of leg_stops (if such data is provided).</t>
   </si>
   <si>
     <t>It seems that this is input information provided by the traveller when searching for trip. Currently, such request information is not availbe in Offer Cache.</t>
@@ -621,6 +834,21 @@
   </si>
   <si>
     <t>??? Availble is bike_walk_distance (distance traveled by bike and walk modes) that is produced by active_fc feature collector. Furthermose, availble in the Offer Cache are coordinates of start and end point and coordinates of leg_stops (if such data is provided) + information about the used modes of travel.</t>
+  </si>
+  <si>
+    <t>Not covered in the OC docu . May need to be extracted by TRIAS extractor. Note: Coordinates are available in the Offer Cache.</t>
+  </si>
+  <si>
+    <t>It is date-time information encoded as a string. It is generated in the offer context. It is randomly generated (with uniform probability to take place between birth date of a traveller and 31/12/2022.</t>
+  </si>
+  <si>
+    <t>It is a string. It is defined in the offer context. It is one of the following values “None”, “Max 1”, “Max 2” selected with probabilities 0.4, 0.3, 0.2, or with the probability 0.1 it is one of the values “Unlimited”, “Max 3”, “Max 4” (selected uniformly).</t>
+  </si>
+  <si>
+    <t>I assume that this is input information about the maximum number of transfer a traveller is willing to accept. If so, we should find it in the request information. Currently it is not included in the offer cache.</t>
+  </si>
+  <si>
+    <t>??? Availble is total_walk_distance (distance traveled by walk mode) that is produced by active_fc feature collector. Furthermose, availble in the Offer Cache are coordinates of start and end point and coordinates of leg_stops (if such data is provided).</t>
   </si>
 </sst>
 </file>
@@ -801,6 +1029,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -816,13 +1051,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -906,6 +1134,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alireza Javadian Sabet" id="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" userId="4555fb01d4c40b0d" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,12 +1437,91 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E3" dT="2021-09-27T02:23:58.78" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{DA8395A7-CECE-4F78-BA72-B6697F034A9C}">
+    <text>I assumed we should receive it from CW or somewhere else.</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2021-09-27T02:22:37.47" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{5D2C947B-7404-46AF-BDD3-DF63FBF6EBFD}">
+    <text>Yes, this is the home city.</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2021-09-27T02:22:56.47" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{0BC0CF08-C03B-443C-AC01-D36822B25E28}">
+    <text>Yes, this is the home country.</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2021-09-27T02:25:23.06" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{B7DDACAE-5F43-4D12-8B43-01E0ADA8C7B7}">
+    <text>As a general rule, the possible values for each feature are extracted from the actual TC application.</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2021-09-27T02:26:57.65" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{44D2AAE9-9A31-4D08-9702-31317955C57D}">
+    <text>Yes, in fact according to the TrainItalia collegues, it is called Product. But you underestood it correctly.</text>
+  </threadedComment>
+  <threadedComment ref="D14" dT="2021-09-27T02:28:20.30" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{ACA3612B-CD0E-471C-AF51-04AF56034598}">
+    <text>The type of seat. Currently, user can set one of the 3 options as the prefered one.</text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2021-09-27T02:29:07.42" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{F390E451-01E8-4DFA-9BDE-AFC49C2A40E1}">
+    <text>The way that the user like to receive their refund in case if they request to cancel a trip or sth like that.</text>
+  </threadedComment>
+  <threadedComment ref="D27" dT="2021-09-27T02:31:35.84" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{22DEB196-D8C6-42DE-AA47-B4BC74229B10}">
+    <text>As discussed durin the weekly T3.1 meetings, since OC parses TRIAS, we expect the OC to send this information to the Learner and Ranker.</text>
+  </threadedComment>
+  <threadedComment ref="D28" dT="2021-09-27T02:32:46.55" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{F9EFBF58-043A-4107-85E7-AA1FC5B896C5}">
+    <text>I completely agree with you, but please note that all the variable names and their values are according to the current TC application.</text>
+  </threadedComment>
+  <threadedComment ref="E28" dT="2021-09-27T02:33:26.28" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{5B3D6D03-3E5B-410A-A636-A183AF25EDF2}">
+    <text>No need for TRIAS, it should be available in CW.</text>
+  </threadedComment>
+  <threadedComment ref="E29" dT="2021-09-27T02:35:50.90" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{AC886CC8-DE61-4998-A397-BC1B33ED411C}">
+    <text>It is something that we expect from OC to send to the Learning and Ranking. But if it is not covered by TRIAS, you might want to assume that all the offers satisfy the mobility request source and destination. Thus, you can use the actual user request as the source and destination.</text>
+  </threadedComment>
+  <threadedComment ref="D30" dT="2021-09-27T02:41:03.38" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{1DF6BE8E-5F08-4148-AFA9-E4346C6ED0FA}">
+    <text>You are right, if I am not wrong, in one of the meetings we underestood that TRIAS doesn't contain the actual coordination. But please be aware that, even if we have such information available, they DO NOT affect the learning. Why? because it doesn't matter (at least that much) if you start/finish from/in specific street. What matters the most is the source and destination cities. In short, we do not need more granularity. It is important for calculating the "Door-to-door" category which is already used by the ranking mechanism. In fact, if you compute that one, we are using it implicitly.</text>
+  </threadedComment>
+  <threadedComment ref="E30" dT="2021-09-27T02:41:35.77" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{EF580394-A706-4AB5-8FAF-0BCCF56DACBF}">
+    <text>Plz check the previous comment on Starting point</text>
+  </threadedComment>
+  <threadedComment ref="D33" dT="2021-09-27T02:42:37.01" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{E7D9BBF0-ED66-4948-A0C4-CE5F8BD2F6AA}">
+    <text>Completely agree. But you might want to double check with INDRIA to sync the changes.</text>
+  </threadedComment>
+  <threadedComment ref="D34" dT="2021-09-27T02:43:14.79" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{4A82061B-E7B7-4033-85CE-B9F452938CEC}">
+    <text>Sorry, but I didn't get your concern</text>
+  </threadedComment>
+  <threadedComment ref="D36" dT="2021-09-27T02:44:58.95" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{20A06AA2-EE98-4D7A-B28E-5778D72D338E}">
+    <text>In the current TC, for some reasons that I am not aware of (maybe terminology), they refer to mode of transportation as "Service".</text>
+  </threadedComment>
+  <threadedComment ref="D37" dT="2021-09-27T02:46:03.99" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{2889B423-AE1A-439B-B545-1DBAD2AEDEDB}">
+    <text>The Prefered/Requested number of legs/changes/transfers</text>
+  </threadedComment>
+  <threadedComment ref="D38" dT="2021-09-27T02:48:14.46" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{B1A04F5E-CFFA-4DBD-935F-8133BC221DE5}">
+    <text>The minimum time that a user needs for transfer. Consider people with PRM.</text>
+  </threadedComment>
+  <threadedComment ref="D39" dT="2021-09-27T02:49:34.36" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{17BA756E-335F-469F-9476-0B34AB027D56}">
+    <text>The distance that the traveler is willing to go by walk to reach station.</text>
+  </threadedComment>
+  <threadedComment ref="D41" dT="2021-09-27T02:50:15.04" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{BF21DCAF-8F9D-4087-B5A2-705B853E2329}">
+    <text>The same as Walking but for Cycling</text>
+  </threadedComment>
+  <threadedComment ref="C44" dT="2021-09-27T02:55:35.23" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{C7D308B0-5949-4A49-822F-8CCD1A59F712}">
+    <text>You are right. I checked the code again. If necessary, some rules should be added in the end to make the choice according to rules instead of randomly. The most efficient way to do that is to write down all the rules that we developed for generating the profile dataset, then, for each combination of rules, we should come up with 2 or 3 possibilities that are presented in the travel offer. Then, we can score them (according to number of requirements that each offer meets) and then choose the one with the highest score. Also, it is good to define specific feature for the tie situation.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2021-09-27T02:58:10.74" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{48A8AB2D-1D0C-4648-843E-FCED48638F2B}">
+    <text>It would be great, but in case if you need it, you can use the date, time, source, and destination. A person doesn't have multiple requests at the same time from same location to same location.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2021-09-27T03:01:58.14" personId="{15E98831-D4E7-471C-A8D5-96F41E1CC5F3}" id="{04033C19-FAF7-446F-8FF9-4945030E64BD}">
+    <text>Matteo would correct me if I am wrong, but as far as I underestood, you are correct, but still it is a question for me what is the treshold for considering a distance by walk as a leg.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1234,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1253,11 +1566,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1275,8 +1588,8 @@
         <v>7</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="32" t="s">
-        <v>120</v>
+      <c r="E3" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1295,7 +1608,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1305,20 +1618,20 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1328,18 +1641,18 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1349,18 +1662,18 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1370,7 +1683,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="110.4" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1380,8 +1693,8 @@
         <v>18</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="33" t="s">
-        <v>107</v>
+      <c r="E8" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1391,7 +1704,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="77.400000000000006" customHeight="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1712,8 @@
         <v>20</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="33" t="s">
-        <v>107</v>
+      <c r="E9" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1410,16 +1723,16 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="90.9" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="33" t="s">
-        <v>107</v>
+      <c r="E10" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1429,7 +1742,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="78.3" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -1437,8 +1750,8 @@
         <v>23</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="33" t="s">
-        <v>107</v>
+      <c r="E11" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1448,7 +1761,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="93.6" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1456,8 +1769,8 @@
         <v>25</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="33" t="s">
-        <v>107</v>
+      <c r="E12" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1467,18 +1780,18 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="70.8" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>107</v>
+      <c r="E13" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1488,7 +1801,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="70.349999999999994" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
@@ -1498,8 +1811,8 @@
       <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>107</v>
+      <c r="E14" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1509,7 +1822,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
@@ -1519,8 +1832,8 @@
       <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>107</v>
+      <c r="E15" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1530,7 +1843,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1541,7 +1854,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -1551,7 +1864,7 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +1873,7 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -1570,7 +1883,7 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
@@ -1579,7 +1892,7 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -1589,7 +1902,7 @@
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1911,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1608,7 +1921,7 @@
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="13" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1930,7 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -1627,7 +1940,7 @@
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="13" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1949,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1646,7 +1959,7 @@
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
@@ -1655,7 +1968,7 @@
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1665,7 +1978,7 @@
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
@@ -1674,7 +1987,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1684,7 +1997,7 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +2006,7 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1703,7 +2016,7 @@
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="13" t="s">
         <v>42</v>
       </c>
@@ -1712,7 +2025,7 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1722,7 +2035,7 @@
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="13" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +2044,7 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1741,7 +2054,7 @@
       <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -1752,7 +2065,7 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1762,7 +2075,7 @@
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" ht="103.8" customHeight="1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="16" t="s">
         <v>47</v>
       </c>
@@ -1773,7 +2086,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1783,7 +2096,7 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="133.80000000000001" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="16" t="s">
         <v>50</v>
       </c>
@@ -1792,7 +2105,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1802,7 +2115,7 @@
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" ht="82.65" customHeight="1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="16" t="s">
         <v>52</v>
       </c>
@@ -1813,7 +2126,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -1823,7 +2136,7 @@
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" ht="116.85" customHeight="1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
@@ -1832,7 +2145,7 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -1842,7 +2155,7 @@
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" ht="93.9" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1852,8 +2165,8 @@
         <v>59</v>
       </c>
       <c r="D32" s="20"/>
-      <c r="E32" s="34" t="s">
-        <v>110</v>
+      <c r="E32" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -1863,7 +2176,7 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" ht="57.6" customHeight="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="19" t="s">
         <v>60</v>
       </c>
@@ -1874,7 +2187,7 @@
         <v>62</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -1884,20 +2197,20 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" s="23" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="E34" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -1907,18 +2220,18 @@
       <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" s="23" customFormat="1" ht="153.6" customHeight="1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="E35" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -1928,18 +2241,18 @@
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" s="23" customFormat="1" ht="130.80000000000001" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="E36" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -1949,18 +2262,18 @@
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" s="23" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>74</v>
-      </c>
       <c r="E37" s="17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -1970,18 +2283,18 @@
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" s="23" customFormat="1" ht="207.6" customHeight="1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="E38" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -1991,18 +2304,18 @@
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11" s="23" customFormat="1" ht="111.9" customHeight="1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="E39" s="17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -2012,18 +2325,18 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" s="23" customFormat="1" ht="125.7" customHeight="1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -2033,18 +2346,18 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" s="23" customFormat="1" ht="125.7" customHeight="1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="E41" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -2054,18 +2367,18 @@
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" s="23" customFormat="1" ht="205.8" customHeight="1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="E42" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -2075,18 +2388,18 @@
       <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" s="23" customFormat="1" ht="120" customHeight="1">
-      <c r="A43" s="27"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="E43" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -2098,10 +2411,10 @@
     <row r="44" spans="1:11" ht="57.6" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2223,15 +2536,16 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -2241,17 +2555,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="58.5" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="42.9" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2360,5 +2674,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>